--- a/artfynd/A 42629-2025 artfynd.xlsx
+++ b/artfynd/A 42629-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>126533661</v>
       </c>
       <c r="B2" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>126533705</v>
       </c>
       <c r="B3" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>126533698</v>
       </c>
       <c r="B4" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>126533690</v>
       </c>
       <c r="B5" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>126533702</v>
       </c>
       <c r="B6" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>126533700</v>
       </c>
       <c r="B7" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>126533660</v>
       </c>
       <c r="B8" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>126533688</v>
       </c>
       <c r="B9" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>126533717</v>
       </c>
       <c r="B10" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>126533728</v>
       </c>
       <c r="B11" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>126533727</v>
       </c>
       <c r="B12" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>126533699</v>
       </c>
       <c r="B13" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>126533677</v>
       </c>
       <c r="B14" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>126533675</v>
       </c>
       <c r="B15" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>126533716</v>
       </c>
       <c r="B16" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>126533718</v>
       </c>
       <c r="B17" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>126533678</v>
       </c>
       <c r="B18" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>126533697</v>
       </c>
       <c r="B19" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>126533663</v>
       </c>
       <c r="B20" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>126533707</v>
       </c>
       <c r="B21" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>126533691</v>
       </c>
       <c r="B23" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>126533659</v>
       </c>
       <c r="B24" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>

--- a/artfynd/A 42629-2025 artfynd.xlsx
+++ b/artfynd/A 42629-2025 artfynd.xlsx
@@ -2868,7 +2868,7 @@
         <v>126533706</v>
       </c>
       <c r="B22" t="n">
-        <v>56852</v>
+        <v>57076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
